--- a/noter/Z01Temp/E02.xlsx
+++ b/noter/Z01Temp/E02.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-undervisning\devcronberg\csskole\noter\Z01Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A0D758-FFC2-4922-95C1-CCFAAC4AACC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D264C2-B2F7-4F32-BDF9-B58151E3DB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB876E88-264E-4ABB-B3B5-16F04F5E3B9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB876E88-264E-4ABB-B3B5-16F04F5E3B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -224,24 +225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -253,6 +236,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,6 +270,2609 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{7B7AAC36-3C15-4003-B191-5209CEB47109}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3" loCatId="matrix" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{63D15C40-1934-4744-BD20-1F2652778F9A}">
+      <dgm:prSet phldrT="[Tekst]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>Abstraktion</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C01DDE7F-D8F7-4EFD-B259-33EDCA1F9A62}" type="parTrans" cxnId="{C77609F0-178B-4DC7-A72C-EC1C83EE7AB1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC5C3936-5C39-4CBC-B1A5-5D2BB41F9A30}" type="sibTrans" cxnId="{C77609F0-178B-4DC7-A72C-EC1C83EE7AB1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{33E47FA9-75DD-48C4-908A-26AB53C5C852}">
+      <dgm:prSet phldrT="[Tekst]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>Indkapsling</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5D5A2D59-97C8-4176-8156-D9AD6FD669FE}" type="parTrans" cxnId="{9C8BDA7C-37A6-4B62-9CA1-7787DF94420B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E66607E6-D914-4896-A563-130B87FA8B4E}" type="sibTrans" cxnId="{9C8BDA7C-37A6-4B62-9CA1-7787DF94420B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ABD494FB-3936-42FC-AA35-F9C3A6A0D68E}">
+      <dgm:prSet phldrT="[Tekst]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>Nedarvning</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7EC72C6-D917-44FA-B41C-78560683B228}" type="parTrans" cxnId="{CE82C8C0-76FD-40FC-8231-2AEA7A4EE64B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53AABEB3-5ADD-4BB2-BA79-5032600883FE}" type="sibTrans" cxnId="{CE82C8C0-76FD-40FC-8231-2AEA7A4EE64B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{48213367-5E09-4E92-9FF5-1CA3E8E2EC4E}">
+      <dgm:prSet phldrT="[Tekst]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>Polymorfi</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E155E96-BADE-4E9E-9484-EB5C9CEB4CD7}" type="parTrans" cxnId="{87A8C7DE-CAE5-4370-B5DB-05EF9764EA5E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA82AA1C-A180-41B4-8F82-94014B1406E5}" type="sibTrans" cxnId="{87A8C7DE-CAE5-4370-B5DB-05EF9764EA5E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" type="pres">
+      <dgm:prSet presAssocID="{7B7AAC36-3C15-4003-B191-5209CEB47109}" presName="matrix" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{10AD3008-0EE1-42CB-B4B2-BA502C504D18}" type="pres">
+      <dgm:prSet presAssocID="{7B7AAC36-3C15-4003-B191-5209CEB47109}" presName="diamond" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{659A1E58-6357-44FF-B009-E20F26F131C4}" type="pres">
+      <dgm:prSet presAssocID="{7B7AAC36-3C15-4003-B191-5209CEB47109}" presName="quad1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9DB030F9-B49F-4A24-A6E3-8C62F051BE96}" type="pres">
+      <dgm:prSet presAssocID="{7B7AAC36-3C15-4003-B191-5209CEB47109}" presName="quad2" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64208FF9-486F-46F2-B575-C4F60C02F7B7}" type="pres">
+      <dgm:prSet presAssocID="{7B7AAC36-3C15-4003-B191-5209CEB47109}" presName="quad3" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EEBDDDA7-84DB-4B1B-BA6C-C91D8B6627FA}" type="pres">
+      <dgm:prSet presAssocID="{7B7AAC36-3C15-4003-B191-5209CEB47109}" presName="quad4" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{558A6234-22E4-456F-98E7-B3297B1EF614}" type="presOf" srcId="{ABD494FB-3936-42FC-AA35-F9C3A6A0D68E}" destId="{64208FF9-486F-46F2-B575-C4F60C02F7B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{21439D4F-1850-4689-9033-D30BDF28C875}" type="presOf" srcId="{63D15C40-1934-4744-BD20-1F2652778F9A}" destId="{659A1E58-6357-44FF-B009-E20F26F131C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{9C8BDA7C-37A6-4B62-9CA1-7787DF94420B}" srcId="{7B7AAC36-3C15-4003-B191-5209CEB47109}" destId="{33E47FA9-75DD-48C4-908A-26AB53C5C852}" srcOrd="1" destOrd="0" parTransId="{5D5A2D59-97C8-4176-8156-D9AD6FD669FE}" sibTransId="{E66607E6-D914-4896-A563-130B87FA8B4E}"/>
+    <dgm:cxn modelId="{84CEAF82-91EB-4BA3-85C8-1BFA7036FD9E}" type="presOf" srcId="{7B7AAC36-3C15-4003-B191-5209CEB47109}" destId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{B8EF9E97-CE01-4EFE-B964-47A797FD82A0}" type="presOf" srcId="{48213367-5E09-4E92-9FF5-1CA3E8E2EC4E}" destId="{EEBDDDA7-84DB-4B1B-BA6C-C91D8B6627FA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{CE82C8C0-76FD-40FC-8231-2AEA7A4EE64B}" srcId="{7B7AAC36-3C15-4003-B191-5209CEB47109}" destId="{ABD494FB-3936-42FC-AA35-F9C3A6A0D68E}" srcOrd="2" destOrd="0" parTransId="{D7EC72C6-D917-44FA-B41C-78560683B228}" sibTransId="{53AABEB3-5ADD-4BB2-BA79-5032600883FE}"/>
+    <dgm:cxn modelId="{87A8C7DE-CAE5-4370-B5DB-05EF9764EA5E}" srcId="{7B7AAC36-3C15-4003-B191-5209CEB47109}" destId="{48213367-5E09-4E92-9FF5-1CA3E8E2EC4E}" srcOrd="3" destOrd="0" parTransId="{7E155E96-BADE-4E9E-9484-EB5C9CEB4CD7}" sibTransId="{EA82AA1C-A180-41B4-8F82-94014B1406E5}"/>
+    <dgm:cxn modelId="{08C668DF-A631-4FDC-A21B-6AB161F21E91}" type="presOf" srcId="{33E47FA9-75DD-48C4-908A-26AB53C5C852}" destId="{9DB030F9-B49F-4A24-A6E3-8C62F051BE96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{C77609F0-178B-4DC7-A72C-EC1C83EE7AB1}" srcId="{7B7AAC36-3C15-4003-B191-5209CEB47109}" destId="{63D15C40-1934-4744-BD20-1F2652778F9A}" srcOrd="0" destOrd="0" parTransId="{C01DDE7F-D8F7-4EFD-B259-33EDCA1F9A62}" sibTransId="{CC5C3936-5C39-4CBC-B1A5-5D2BB41F9A30}"/>
+    <dgm:cxn modelId="{0881C180-871A-479A-93F5-519835C16BA1}" type="presParOf" srcId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" destId="{10AD3008-0EE1-42CB-B4B2-BA502C504D18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{313E5B56-BFF0-48E1-9C4C-5F68DC7BC33B}" type="presParOf" srcId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" destId="{659A1E58-6357-44FF-B009-E20F26F131C4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{25AE578D-32EB-48E1-83F9-F8B89FD45E05}" type="presParOf" srcId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" destId="{9DB030F9-B49F-4A24-A6E3-8C62F051BE96}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{1F2F261C-E7C4-479B-86CB-6221DD57CCB1}" type="presParOf" srcId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" destId="{64208FF9-486F-46F2-B575-C4F60C02F7B7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+    <dgm:cxn modelId="{C0A88D17-5C9C-4AE7-B990-8BAF72A6E435}" type="presParOf" srcId="{E59B65B2-E242-4F85-A2BF-476B4E258293}" destId="{EEBDDDA7-84DB-4B1B-BA6C-C91D8B6627FA}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{10AD3008-0EE1-42CB-B4B2-BA502C504D18}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1150143" y="0"/>
+          <a:ext cx="4214813" cy="4214813"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{659A1E58-6357-44FF-B009-E20F26F131C4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1550550" y="400407"/>
+          <a:ext cx="1643777" cy="1643777"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="2200" kern="1200"/>
+            <a:t>Abstraktion</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1630793" y="480650"/>
+        <a:ext cx="1483291" cy="1483291"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9DB030F9-B49F-4A24-A6E3-8C62F051BE96}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3320772" y="400407"/>
+          <a:ext cx="1643777" cy="1643777"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="2200" kern="1200"/>
+            <a:t>Indkapsling</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3401015" y="480650"/>
+        <a:ext cx="1483291" cy="1483291"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{64208FF9-486F-46F2-B575-C4F60C02F7B7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1550550" y="2170628"/>
+          <a:ext cx="1643777" cy="1643777"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="2200" kern="1200"/>
+            <a:t>Nedarvning</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1630793" y="2250871"/>
+        <a:ext cx="1483291" cy="1483291"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EEBDDDA7-84DB-4B1B-BA6C-C91D8B6627FA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3320772" y="2170628"/>
+          <a:ext cx="1643777" cy="1643777"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="2200" kern="1200"/>
+            <a:t>Polymorfi</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3401015" y="2250871"/>
+        <a:ext cx="1483291" cy="1483291"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/matrix3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="matrix" pri="1000"/>
+    <dgm:cat type="convert" pri="18000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="matrix">
+    <dgm:varLst>
+      <dgm:chMax val="1"/>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="ar" val="1"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="diamond" refType="w"/>
+          <dgm:constr type="h" for="ch" forName="diamond" refType="h"/>
+          <dgm:constr type="w" for="ch" forName="quad1" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad1" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad1" refType="w" fact="0.29"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad1" refType="h" fact="0.29"/>
+          <dgm:constr type="w" for="ch" forName="quad2" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad2" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad2" refType="w" fact="0.71"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad2" refType="h" fact="0.29"/>
+          <dgm:constr type="w" for="ch" forName="quad3" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad3" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad3" refType="w" fact="0.29"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad3" refType="h" fact="0.71"/>
+          <dgm:constr type="w" for="ch" forName="quad4" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad4" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad4" refType="w" fact="0.71"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad4" refType="h" fact="0.71"/>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="diamond" refType="w"/>
+          <dgm:constr type="h" for="ch" forName="diamond" refType="h"/>
+          <dgm:constr type="w" for="ch" forName="quad1" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad1" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad1" refType="w" fact="0.71"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad1" refType="h" fact="0.29"/>
+          <dgm:constr type="w" for="ch" forName="quad2" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad2" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad2" refType="w" fact="0.29"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad2" refType="h" fact="0.29"/>
+          <dgm:constr type="w" for="ch" forName="quad3" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad3" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad3" refType="w" fact="0.71"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad3" refType="h" fact="0.71"/>
+          <dgm:constr type="w" for="ch" forName="quad4" refType="w" fact="0.39"/>
+          <dgm:constr type="h" for="ch" forName="quad4" refType="h" fact="0.39"/>
+          <dgm:constr type="ctrX" for="ch" forName="quad4" refType="w" fact="0.29"/>
+          <dgm:constr type="ctrY" for="ch" forName="quad4" refType="h" fact="0.71"/>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:choose name="Name3">
+      <dgm:if name="Name4" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+        <dgm:layoutNode name="diamond" styleLbl="bgShp">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="diamond" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="w" refType="h" op="equ"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="quad1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+          <dgm:constrLst>
+            <dgm:constr type="w" refType="h" op="equ"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="quad2">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+          <dgm:constrLst>
+            <dgm:constr type="w" refType="h" op="equ"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="quad3">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+          <dgm:constrLst>
+            <dgm:constr type="w" refType="h" op="equ"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="quad4">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+          <dgm:constrLst>
+            <dgm:constr type="w" refType="h" op="equ"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name5"/>
+    </dgm:choose>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,6 +3222,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A03D4A-AADC-486E-B205-4CFA3AF47C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -917,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1063D92-39CC-4EF3-AECF-3C5BA6786F02}">
   <dimension ref="D11:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -928,11 +3573,11 @@
   <sheetData>
     <row r="11" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
@@ -940,11 +3585,11 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="7:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G15" s="7"/>
@@ -953,17 +3598,17 @@
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="H18" s="13" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
@@ -976,10 +3621,10 @@
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="13"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -987,8 +3632,8 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -996,10 +3641,10 @@
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="13"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -1007,8 +3652,8 @@
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1016,10 +3661,10 @@
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="13"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1049,4 +3694,19 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58981FCE-C6C6-4ACD-B04C-31429DC59FB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>